--- a/common/file_templates/list_ss_1.xlsx
+++ b/common/file_templates/list_ss_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\working\aa_dev\common\file_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DD97A4-D416-41F7-8140-9E99A7A30647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D5550D-A309-4E5F-A7C8-401DE2E6983C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t>[application.snils_number]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>[application.exam_1]</t>
   </si>
@@ -54,9 +51,6 @@
     <t>[application.sum_ball]</t>
   </si>
   <si>
-    <t>[application.priority]</t>
-  </si>
-  <si>
     <t>[application.quid_profile]</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
     <t>[application.snils]</t>
   </si>
   <si>
-    <t>Prioritet EPK</t>
-  </si>
-  <si>
     <t>[application.number]</t>
   </si>
   <si>
@@ -159,14 +150,83 @@
     <t>[application.exam_5]</t>
   </si>
   <si>
-    <t>Данные из EPK</t>
+    <t>Идентификатор конкурса</t>
+  </si>
+  <si>
+    <t>СНИЛС</t>
+  </si>
+  <si>
+    <t>Guid поступающего</t>
+  </si>
+  <si>
+    <t>Приоритет зачисления</t>
+  </si>
+  <si>
+    <t>Высший приоритет зачисления(да/нет)</t>
+  </si>
+  <si>
+    <t>Ранг заявления (Обязательно: от 1 до кол-ва заявлений)</t>
+  </si>
+  <si>
+    <t>БВИ(да/нет)</t>
+  </si>
+  <si>
+    <t>Наименование ВИ1</t>
+  </si>
+  <si>
+    <t>Количество баллов за ВИ1</t>
+  </si>
+  <si>
+    <t>Наименование ВИ2</t>
+  </si>
+  <si>
+    <t>Количество баллов за ВИ2</t>
+  </si>
+  <si>
+    <t>Наименование ВИ3</t>
+  </si>
+  <si>
+    <t>Количество баллов за ВИ3</t>
+  </si>
+  <si>
+    <t>Наименование ВИ4</t>
+  </si>
+  <si>
+    <t>Количество баллов за ВИ4</t>
+  </si>
+  <si>
+    <t>Наименование ВИ5</t>
+  </si>
+  <si>
+    <t>Количество баллов за ВИ5</t>
+  </si>
+  <si>
+    <t>Сумма баллов за индивидуальные достижения</t>
+  </si>
+  <si>
+    <t>Сумма баллов за вступительные испытания</t>
+  </si>
+  <si>
+    <t>Сумма конкурсных баллов (за вступительные испытания и индивидуальные достижения)</t>
+  </si>
+  <si>
+    <t>Наличие преимущественных прав зачисления(да/нет)</t>
+  </si>
+  <si>
+    <t>Наличие оригинала документа об образовании(да/нет)</t>
+  </si>
+  <si>
+    <t>Prioritet</t>
+  </si>
+  <si>
+    <t>[application.priority_ss]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -177,8 +237,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +261,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90EE90"/>
       </patternFill>
     </fill>
   </fills>
@@ -215,22 +293,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{DD4C198B-339E-44C6-A39A-4448C507A5B4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -532,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -561,154 +643,215 @@
     <col min="20" max="20" width="25.9296875" customWidth="1"/>
     <col min="21" max="21" width="23.86328125" customWidth="1"/>
     <col min="22" max="22" width="25.86328125" customWidth="1"/>
-    <col min="23" max="23" width="22.86328125" customWidth="1"/>
-    <col min="24" max="24" width="28.06640625" customWidth="1"/>
-    <col min="25" max="25" width="27.59765625" customWidth="1"/>
-    <col min="26" max="26" width="24.73046875" customWidth="1"/>
-    <col min="27" max="27" width="32.73046875" customWidth="1"/>
+    <col min="23" max="23" width="28.06640625" customWidth="1"/>
+    <col min="24" max="24" width="27.59765625" customWidth="1"/>
+    <col min="25" max="25" width="24.73046875" customWidth="1"/>
+    <col min="26" max="26" width="32.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C6" s="2"/>
     </row>
   </sheetData>
